--- a/xlsx/朝鮮_intext.xlsx
+++ b/xlsx/朝鮮_intext.xlsx
@@ -29,7 +29,7 @@
     <t>朝鲜 (称谓)</t>
   </si>
   <si>
-    <t>政策_政策_美國_朝鮮</t>
+    <t>体育运动_体育运动_宦官_朝鮮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
@@ -566,10 +566,10 @@
     <t>共產主義</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%8F%B3</t>
-  </si>
-  <si>
-    <t>極右</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%8F%B3%E7%BF%BC</t>
+  </si>
+  <si>
+    <t>極右翼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
